--- a/Server.xlsx
+++ b/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24795" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19455" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -594,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
